--- a/second-order/1878/February1878.xlsx
+++ b/second-order/1878/February1878.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26719"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1878\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12848" documentId="13_ncr:1_{82AA521F-DE5D-4758-BC8E-9993C1052768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{757FA49F-1A2B-4AED-B112-CD6DE99ED8FB}"/>
+  <xr:revisionPtr revIDLastSave="14052" documentId="13_ncr:1_{82AA521F-DE5D-4758-BC8E-9993C1052768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A89348BA-F9AA-4E84-B91D-75325289B32B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="22" activeTab="24" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Glenalmond" sheetId="15" r:id="rId1"/>
@@ -51,6 +51,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="88">
   <si>
     <t>Barometer</t>
   </si>
@@ -183,6 +185,9 @@
     <t>5-7</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>Wakefield</t>
   </si>
   <si>
@@ -267,9 +272,6 @@
     <t>Strathfield Turgiss</t>
   </si>
   <si>
-    <t>I90</t>
-  </si>
-  <si>
     <t>Ramsgate</t>
   </si>
   <si>
@@ -297,9 +299,6 @@
     <t>Babbacombe, Devon</t>
   </si>
   <si>
-    <t>ND.110</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -321,22 +320,7 @@
     <t>Dublin</t>
   </si>
   <si>
-    <t>S by E</t>
-  </si>
-  <si>
-    <t>W by S</t>
-  </si>
-  <si>
-    <t>Eby S</t>
-  </si>
-  <si>
-    <t>SE by E</t>
-  </si>
-  <si>
-    <t>Wby S</t>
-  </si>
-  <si>
-    <t>W by N</t>
+    <t>SEbyE</t>
   </si>
   <si>
     <t>Birr Castle</t>
@@ -929,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2897,11 +2881,15 @@
       <c r="N32" s="12">
         <v>86.1</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.9</v>
       </c>
@@ -2931,11 +2919,11 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED182907-3967-4840-BF65-EDCDC4C0836B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31:O43"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -3054,7 +3042,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -3119,7 +3107,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -3170,7 +3158,7 @@
         <v>38</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S5" s="1">
         <v>10</v>
@@ -3184,7 +3172,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -3249,7 +3237,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -3300,7 +3288,7 @@
         <v>28</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S7" s="1">
         <v>10</v>
@@ -3314,7 +3302,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -3365,7 +3353,7 @@
         <v>28</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S8" s="1">
         <v>10</v>
@@ -3379,7 +3367,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -3444,7 +3432,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -3489,7 +3477,7 @@
         <v>29</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>25</v>
@@ -3509,7 +3497,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -3574,7 +3562,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -3639,7 +3627,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -3704,7 +3692,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -3752,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R14" s="6">
         <v>2</v>
@@ -3769,7 +3757,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -3811,7 +3799,7 @@
         <v>76</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P15" s="1">
         <v>2</v>
@@ -3834,7 +3822,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -3899,7 +3887,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -3941,7 +3929,7 @@
         <v>92</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P17" s="1">
         <v>2</v>
@@ -3964,7 +3952,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -4029,7 +4017,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -4077,7 +4065,7 @@
         <v>4</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R19" s="6">
         <v>5</v>
@@ -4094,7 +4082,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -4145,7 +4133,7 @@
         <v>28</v>
       </c>
       <c r="R20" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S20" s="1">
         <v>10</v>
@@ -4159,7 +4147,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -4224,7 +4212,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -4269,13 +4257,13 @@
         <v>28</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="R22" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S22" s="1">
         <v>10</v>
@@ -4289,7 +4277,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -4334,7 +4322,7 @@
         <v>28</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>21</v>
@@ -4354,7 +4342,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -4419,7 +4407,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -4464,7 +4452,7 @@
         <v>24</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>24</v>
@@ -4484,7 +4472,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -4535,7 +4523,7 @@
         <v>23</v>
       </c>
       <c r="R26" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S26" s="1">
         <v>10</v>
@@ -4549,7 +4537,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -4614,7 +4602,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -4665,7 +4653,7 @@
         <v>29</v>
       </c>
       <c r="R28" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S28" s="1">
         <v>10</v>
@@ -4679,7 +4667,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -4730,7 +4718,7 @@
         <v>23</v>
       </c>
       <c r="R29" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S29" s="1">
         <v>9</v>
@@ -4744,7 +4732,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -4809,7 +4797,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -4854,13 +4842,13 @@
         <v>32</v>
       </c>
       <c r="P31" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="R31" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S31" s="1">
         <v>10</v>
@@ -4909,11 +4897,15 @@
       <c r="N32" s="12">
         <v>91.3</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.2000000000000002</v>
       </c>
@@ -4926,6 +4918,23 @@
       <c r="U32" s="21">
         <v>1.08</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4945,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80476FA-4182-4264-80A8-C7112CFAE3A7}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5058,7 +5067,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -5123,7 +5132,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -5188,7 +5197,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -5253,7 +5262,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -5318,7 +5327,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -5383,7 +5392,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -5416,7 +5425,7 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="L9" s="6">
-        <v>0.184</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="M9" s="1">
         <v>87</v>
@@ -5448,7 +5457,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -5481,7 +5490,7 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="L10" s="6">
-        <v>0.16200000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="M10" s="1">
         <v>88</v>
@@ -5513,7 +5522,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -5546,7 +5555,7 @@
         <v>0.161</v>
       </c>
       <c r="L11" s="6">
-        <v>0.22600000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="M11" s="1">
         <v>100</v>
@@ -5578,7 +5587,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -5611,7 +5620,7 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="L12" s="6">
-        <v>0.191</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="M12" s="1">
         <v>100</v>
@@ -5643,7 +5652,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -5676,7 +5685,7 @@
         <v>0.18</v>
       </c>
       <c r="L13" s="6">
-        <v>0.17799999999999999</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="M13" s="1">
         <v>98</v>
@@ -5708,7 +5717,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -5741,7 +5750,7 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="L14" s="6">
-        <v>0.214</v>
+        <v>0.191</v>
       </c>
       <c r="M14" s="1">
         <v>99</v>
@@ -5773,7 +5782,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -5806,7 +5815,7 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="L15" s="6">
-        <v>0.22</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="M15" s="1">
         <v>91</v>
@@ -5838,7 +5847,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -5871,7 +5880,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="L16" s="6">
-        <v>0.246</v>
+        <v>0.214</v>
       </c>
       <c r="M16" s="1">
         <v>88</v>
@@ -5903,7 +5912,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -5936,7 +5945,7 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="L17" s="6">
-        <v>0.29699999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="M17" s="1">
         <v>98</v>
@@ -5968,7 +5977,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -6001,7 +6010,7 @@
         <v>0.245</v>
       </c>
       <c r="L18" s="6">
-        <v>0.26600000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="M18" s="1">
         <v>95</v>
@@ -6033,7 +6042,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -6066,7 +6075,7 @@
         <v>0.251</v>
       </c>
       <c r="L19" s="6">
-        <v>0.23899999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="M19" s="1">
         <v>82</v>
@@ -6098,7 +6107,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -6131,7 +6140,7 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="L20" s="6">
-        <v>0.19400000000000001</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="M20" s="1">
         <v>76</v>
@@ -6163,7 +6172,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -6228,7 +6237,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -6293,7 +6302,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -6358,7 +6367,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -6423,7 +6432,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -6488,7 +6497,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -6553,7 +6562,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -6618,7 +6627,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -6683,7 +6692,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -6748,7 +6757,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -6813,7 +6822,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -6913,11 +6922,15 @@
       <c r="N32" s="12">
         <v>86.3</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.4</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.3</v>
       </c>
@@ -6948,13 +6961,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8F88C9-B23F-4F2A-A610-B51C3EC0FD98}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="R22" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
@@ -7061,7 +7075,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -7126,7 +7140,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -7191,7 +7205,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -7256,7 +7270,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -7321,7 +7335,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -7386,7 +7400,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -7451,7 +7465,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -7516,7 +7530,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -7581,7 +7595,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -7626,7 +7640,7 @@
         <v>35</v>
       </c>
       <c r="P12" s="1">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>25</v>
@@ -7646,7 +7660,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -7711,7 +7725,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -7776,7 +7790,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -7841,7 +7855,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -7862,7 +7876,7 @@
         <v>44.8</v>
       </c>
       <c r="H16" s="1">
-        <v>41.8</v>
+        <v>43.8</v>
       </c>
       <c r="I16" s="1">
         <v>34.5</v>
@@ -7906,7 +7920,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -7927,7 +7941,7 @@
         <v>43.2</v>
       </c>
       <c r="H17" s="1">
-        <v>39.9</v>
+        <v>42.4</v>
       </c>
       <c r="I17" s="1">
         <v>42</v>
@@ -7971,7 +7985,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -8036,7 +8050,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -8101,7 +8115,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -8137,7 +8151,7 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>909</v>
+        <v>90</v>
       </c>
       <c r="N20" s="6">
         <v>85</v>
@@ -8166,7 +8180,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -8231,7 +8245,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -8296,7 +8310,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -8361,7 +8375,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -8426,7 +8440,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -8491,7 +8505,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -8556,7 +8570,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -8621,7 +8635,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -8680,13 +8694,13 @@
       <c r="T28" s="1">
         <v>10</v>
       </c>
-      <c r="U28" s="9">
-        <v>10</v>
+      <c r="U28" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -8746,12 +8760,12 @@
         <v>10</v>
       </c>
       <c r="U29" s="9">
-        <v>10</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -8808,15 +8822,15 @@
         <v>9</v>
       </c>
       <c r="T30" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U30" s="9">
-        <v>2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -8873,10 +8887,10 @@
         <v>10</v>
       </c>
       <c r="T31" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U31" s="9">
-        <v>5</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
@@ -8916,11 +8930,15 @@
       <c r="N32" s="12">
         <v>88.3</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>0.6</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>0.7</v>
       </c>
@@ -8928,7 +8946,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="T32" s="12">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="U32" s="13">
         <v>1.155</v>
@@ -8951,8 +8969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD56A264-5FEA-4FE0-A75E-E8494B0F0A51}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="E18" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView topLeftCell="J25" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9064,7 +9082,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -9129,7 +9147,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -9194,7 +9212,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -9259,7 +9277,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -9324,7 +9342,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -9389,7 +9407,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -9454,7 +9472,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -9519,7 +9537,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -9584,7 +9602,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -9649,7 +9667,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -9714,7 +9732,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -9779,7 +9797,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -9844,7 +9862,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -9909,7 +9927,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -9974,7 +9992,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -10039,7 +10057,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -10104,7 +10122,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -10169,7 +10187,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -10234,7 +10252,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -10299,7 +10317,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -10364,7 +10382,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -10429,7 +10447,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -10494,7 +10512,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -10559,7 +10577,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -10624,7 +10642,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -10689,7 +10707,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -10754,7 +10772,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -10819,7 +10837,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -10919,11 +10937,15 @@
       <c r="N32" s="12">
         <v>92.2</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>0.6</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>0.8</v>
       </c>
@@ -10953,11 +10975,11 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC329757-9589-43BA-9830-B0C05F54B799}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
+      <pane ySplit="3" topLeftCell="K23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -10974,7 +10996,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="U1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1">
@@ -11081,7 +11103,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -11146,7 +11168,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -11211,7 +11233,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -11276,7 +11298,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -11341,7 +11363,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -11406,7 +11428,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -11471,7 +11493,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -11536,7 +11558,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -11601,7 +11623,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -11666,7 +11688,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -11731,7 +11753,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -11796,7 +11818,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -11861,7 +11883,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -11926,7 +11948,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -11991,7 +12013,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -12056,7 +12078,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -12071,7 +12093,7 @@
         <v>30.148</v>
       </c>
       <c r="F19" s="6">
-        <v>29.905999999999999</v>
+        <v>30.163</v>
       </c>
       <c r="G19" s="1">
         <v>48.3</v>
@@ -12121,7 +12143,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -12136,7 +12158,7 @@
         <v>30.041</v>
       </c>
       <c r="F20" s="6">
-        <v>30.358000000000001</v>
+        <v>29.905999999999999</v>
       </c>
       <c r="G20" s="1">
         <v>54.3</v>
@@ -12186,7 +12208,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -12201,7 +12223,7 @@
         <v>30.114000000000001</v>
       </c>
       <c r="F21" s="6">
-        <v>30.169</v>
+        <v>30.358000000000001</v>
       </c>
       <c r="G21" s="1">
         <v>50.2</v>
@@ -12251,7 +12273,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -12266,7 +12288,7 @@
         <v>30.387</v>
       </c>
       <c r="F22" s="6">
-        <v>30.423999999999999</v>
+        <v>30.169</v>
       </c>
       <c r="G22" s="1">
         <v>46.7</v>
@@ -12316,7 +12338,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -12331,7 +12353,7 @@
         <v>30.154</v>
       </c>
       <c r="F23" s="6">
-        <v>30.655000000000001</v>
+        <v>30.423999999999999</v>
       </c>
       <c r="G23" s="1">
         <v>47.5</v>
@@ -12381,7 +12403,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -12396,7 +12418,7 @@
         <v>30.632000000000001</v>
       </c>
       <c r="F24" s="6">
-        <v>30.539000000000001</v>
+        <v>30.655000000000001</v>
       </c>
       <c r="G24" s="1">
         <v>44.2</v>
@@ -12446,7 +12468,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -12511,7 +12533,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -12576,7 +12598,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -12641,7 +12663,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -12706,7 +12728,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -12771,7 +12793,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -12836,7 +12858,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -12936,11 +12958,15 @@
       <c r="N32" s="12">
         <v>93.8</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1</v>
       </c>
@@ -12953,6 +12979,23 @@
       <c r="U32" s="21">
         <v>2.92</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12972,8 +13015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D50969-602C-407C-90E2-38F88EF089F3}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="J24" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13085,7 +13128,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -13150,7 +13193,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -13215,7 +13258,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -13280,7 +13323,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -13345,7 +13388,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -13410,7 +13453,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -13475,7 +13518,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -13540,7 +13583,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -13605,7 +13648,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -13670,7 +13713,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -13735,7 +13778,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -13800,7 +13843,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -13865,7 +13908,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -13930,7 +13973,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -13995,7 +14038,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -14060,7 +14103,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -14125,7 +14168,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -14190,7 +14233,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -14255,7 +14298,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -14320,7 +14363,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -14385,7 +14428,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -14450,7 +14493,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -14515,7 +14558,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -14580,7 +14623,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -14645,7 +14688,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -14710,7 +14753,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -14775,7 +14818,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -14840,7 +14883,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -14940,11 +14983,15 @@
       <c r="N32" s="12">
         <v>94.3</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>0.4</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>0.7</v>
       </c>
@@ -14974,11 +15021,11 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5B7868-56EE-4A9A-910A-A0CD109A2F92}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="E16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -15097,7 +15144,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -15162,7 +15209,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -15227,7 +15274,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -15292,7 +15339,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -15357,7 +15404,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -15422,7 +15469,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -15487,7 +15534,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -15552,7 +15599,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -15617,7 +15664,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -15682,7 +15729,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -15747,7 +15794,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -15812,7 +15859,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -15877,7 +15924,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -15912,8 +15959,8 @@
       <c r="L16" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>69</v>
+      <c r="M16" s="1">
+        <v>90</v>
       </c>
       <c r="N16" s="6">
         <v>97</v>
@@ -15942,7 +15989,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -16007,7 +16054,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -16072,7 +16119,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -16137,7 +16184,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -16202,7 +16249,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -16267,7 +16314,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -16332,7 +16379,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -16397,7 +16444,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -16462,7 +16509,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -16527,7 +16574,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -16592,7 +16639,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -16657,7 +16704,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -16722,7 +16769,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -16787,7 +16834,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -16852,7 +16899,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -16952,11 +16999,15 @@
       <c r="N32" s="12">
         <v>91.8</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>0.9</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>0.9</v>
       </c>
@@ -16969,6 +17020,23 @@
       <c r="U32" s="13">
         <v>1.625</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16988,8 +17056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A310F85-A627-4FFA-A76E-4BA45485986E}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="K23" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18759,7 +18827,7 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="L29" s="6">
-        <v>285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="M29" s="1">
         <v>88</v>
@@ -18956,11 +19024,15 @@
       <c r="N32" s="12">
         <v>93.3</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.8</v>
       </c>
@@ -18991,8 +19063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B67C626-385D-4BB4-83E7-BBFACA9022E8}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20959,11 +21031,15 @@
       <c r="N32" s="12">
         <v>89.3</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>0.9</v>
       </c>
@@ -20994,8 +21070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198EE2E4-A17F-42E2-BEC0-BDCB486A0EB2}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21118,11 +21194,36 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="E4" s="5">
+        <v>30.542999999999999</v>
+      </c>
+      <c r="F4" s="6">
+        <v>30.454000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="I4" s="1">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="J4" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="M4" s="1">
+        <v>78</v>
+      </c>
+      <c r="N4" s="6">
+        <v>84</v>
+      </c>
       <c r="O4" s="1" t="s">
         <v>37</v>
       </c>
@@ -21158,11 +21259,36 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="E5" s="5">
+        <v>30.375</v>
+      </c>
+      <c r="F5" s="6">
+        <v>30.373000000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H5" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="J5" s="6">
+        <v>42</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.215</v>
+      </c>
+      <c r="M5" s="1">
+        <v>93</v>
+      </c>
+      <c r="N5" s="6">
+        <v>96</v>
+      </c>
       <c r="O5" s="1" t="s">
         <v>38</v>
       </c>
@@ -21172,8 +21298,8 @@
       <c r="Q5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="6">
-        <v>-1</v>
+      <c r="R5" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="S5" s="1">
         <v>10</v>
@@ -21198,11 +21324,36 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="E6" s="5">
+        <v>30.376999999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <v>30.446000000000002</v>
+      </c>
+      <c r="G6" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="H6" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="J6" s="6">
+        <v>43.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.214</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.253</v>
+      </c>
+      <c r="M6" s="1">
+        <v>86</v>
+      </c>
+      <c r="N6" s="6">
+        <v>98</v>
+      </c>
       <c r="O6" s="1" t="s">
         <v>73</v>
       </c>
@@ -21238,11 +21389,36 @@
       <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="E7" s="5">
+        <v>30.532</v>
+      </c>
+      <c r="F7" s="6">
+        <v>30.58</v>
+      </c>
+      <c r="G7" s="1">
+        <v>38.6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="I7" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="J7" s="6">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="M7" s="1">
+        <v>95</v>
+      </c>
+      <c r="N7" s="6">
+        <v>95</v>
+      </c>
       <c r="O7" s="1" t="s">
         <v>33</v>
       </c>
@@ -21278,11 +21454,36 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="E8" s="5">
+        <v>30.62</v>
+      </c>
+      <c r="F8" s="6">
+        <v>30.606999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="I8" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="J8" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.184</v>
+      </c>
+      <c r="M8" s="1">
+        <v>91</v>
+      </c>
+      <c r="N8" s="6">
+        <v>86</v>
+      </c>
       <c r="O8" s="1" t="s">
         <v>34</v>
       </c>
@@ -21318,13 +21519,38 @@
       <c r="D9" s="1">
         <v>6</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="E9" s="5">
+        <v>30.582999999999998</v>
+      </c>
+      <c r="F9" s="6">
+        <v>30.594000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1">
+        <v>34.4</v>
+      </c>
+      <c r="J9" s="6">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.186</v>
+      </c>
+      <c r="M9" s="1">
+        <v>86</v>
+      </c>
+      <c r="N9" s="6">
+        <v>91</v>
+      </c>
       <c r="O9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" s="1">
         <v>3</v>
@@ -21358,13 +21584,38 @@
       <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="E10" s="5">
+        <v>30.638000000000002</v>
+      </c>
+      <c r="F10" s="6">
+        <v>30.641999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>32.9</v>
+      </c>
+      <c r="H10" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I10" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="J10" s="6">
+        <v>36.6</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="M10" s="1">
+        <v>91</v>
+      </c>
+      <c r="N10" s="6">
+        <v>95</v>
+      </c>
       <c r="O10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" s="1">
         <v>1</v>
@@ -21373,7 +21624,7 @@
         <v>33</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S10" s="1">
         <v>10</v>
@@ -21398,11 +21649,36 @@
       <c r="D11" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="E11" s="5">
+        <v>30.638999999999999</v>
+      </c>
+      <c r="F11" s="6">
+        <v>30.548999999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>56.6</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="M11" s="1">
+        <v>99</v>
+      </c>
+      <c r="N11" s="6">
+        <v>95</v>
+      </c>
       <c r="O11" s="1" t="s">
         <v>25</v>
       </c>
@@ -21413,7 +21689,7 @@
         <v>28</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S11" s="1">
         <v>10</v>
@@ -21438,11 +21714,36 @@
       <c r="D12" s="1">
         <v>9</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="E12" s="5">
+        <v>30.393999999999998</v>
+      </c>
+      <c r="F12" s="6">
+        <v>30.199000000000002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I12" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="J12" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>95</v>
+      </c>
+      <c r="N12" s="6">
+        <v>85</v>
+      </c>
       <c r="O12" s="1" t="s">
         <v>28</v>
       </c>
@@ -21478,11 +21779,36 @@
       <c r="D13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="E13" s="5">
+        <v>30.029</v>
+      </c>
+      <c r="F13" s="6">
+        <v>29.923999999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>38.6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>34.4</v>
+      </c>
+      <c r="J13" s="6">
+        <v>44.6</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>97</v>
+      </c>
+      <c r="N13" s="6">
+        <v>99</v>
+      </c>
       <c r="O13" s="1" t="s">
         <v>28</v>
       </c>
@@ -21518,11 +21844,36 @@
       <c r="D14" s="1">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="E14" s="5">
+        <v>29.952999999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>30.042000000000002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I14" s="1">
+        <v>38</v>
+      </c>
+      <c r="J14" s="6">
+        <v>44.3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>97</v>
+      </c>
+      <c r="N14" s="6">
+        <v>93</v>
+      </c>
       <c r="O14" s="1" t="s">
         <v>33</v>
       </c>
@@ -21558,11 +21909,36 @@
       <c r="D15" s="1">
         <v>12</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="E15" s="5">
+        <v>30.241</v>
+      </c>
+      <c r="F15" s="6">
+        <v>30.244</v>
+      </c>
+      <c r="G15" s="1">
+        <v>38.6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>37.6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>36.9</v>
+      </c>
+      <c r="J15" s="6">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="M15" s="1">
+        <v>74</v>
+      </c>
+      <c r="N15" s="6">
+        <v>76</v>
+      </c>
       <c r="O15" s="1" t="s">
         <v>34</v>
       </c>
@@ -21570,7 +21946,7 @@
         <v>2</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R15" s="6">
         <v>3</v>
@@ -21598,11 +21974,36 @@
       <c r="D16" s="1">
         <v>13</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="E16" s="5">
+        <v>29.998999999999999</v>
+      </c>
+      <c r="F16" s="6">
+        <v>30.004000000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>36.9</v>
+      </c>
+      <c r="J16" s="6">
+        <v>47</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="M16" s="1">
+        <v>98</v>
+      </c>
+      <c r="N16" s="6">
+        <v>99</v>
+      </c>
       <c r="O16" s="1" t="s">
         <v>32</v>
       </c>
@@ -21638,11 +22039,36 @@
       <c r="D17" s="1">
         <v>14</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="E17" s="5">
+        <v>29.898</v>
+      </c>
+      <c r="F17" s="6">
+        <v>29.989000000000001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="I17" s="1">
+        <v>40</v>
+      </c>
+      <c r="J17" s="6">
+        <v>47.3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.247</v>
+      </c>
+      <c r="M17" s="1">
+        <v>98</v>
+      </c>
+      <c r="N17" s="6">
+        <v>99</v>
+      </c>
       <c r="O17" s="1" t="s">
         <v>32</v>
       </c>
@@ -21678,11 +22104,36 @@
       <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="E18" s="5">
+        <v>30.125</v>
+      </c>
+      <c r="F18" s="6">
+        <v>30.167000000000002</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="J18" s="6">
+        <v>48.8</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="M18" s="1">
+        <v>97</v>
+      </c>
+      <c r="N18" s="6">
+        <v>100</v>
+      </c>
       <c r="O18" s="1" t="s">
         <v>28</v>
       </c>
@@ -21718,11 +22169,36 @@
       <c r="D19" s="1">
         <v>16</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="E19" s="5">
+        <v>30.331</v>
+      </c>
+      <c r="F19" s="6">
+        <v>30.364000000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="I19" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>49</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.307</v>
+      </c>
+      <c r="M19" s="1">
+        <v>97</v>
+      </c>
+      <c r="N19" s="6">
+        <v>99</v>
+      </c>
       <c r="O19" s="1" t="s">
         <v>32</v>
       </c>
@@ -21758,11 +22234,36 @@
       <c r="D20" s="1">
         <v>17</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="E20" s="5">
+        <v>30.318000000000001</v>
+      </c>
+      <c r="F20" s="6">
+        <v>30.164000000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>48</v>
+      </c>
+      <c r="H20" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="J20" s="6">
+        <v>52.5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>93</v>
+      </c>
+      <c r="N20" s="6">
+        <v>90</v>
+      </c>
       <c r="O20" s="1" t="s">
         <v>28</v>
       </c>
@@ -21798,11 +22299,36 @@
       <c r="D21" s="1">
         <v>18</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="E21" s="5">
+        <v>30.138000000000002</v>
+      </c>
+      <c r="F21" s="6">
+        <v>30.334</v>
+      </c>
+      <c r="G21" s="1">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="J21" s="6">
+        <v>52.8</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.316</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="M21" s="1">
+        <v>98</v>
+      </c>
+      <c r="N21" s="6">
+        <v>97</v>
+      </c>
       <c r="O21" s="1" t="s">
         <v>23</v>
       </c>
@@ -21838,11 +22364,36 @@
       <c r="D22" s="1">
         <v>19</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="E22" s="5">
+        <v>30.481000000000002</v>
+      </c>
+      <c r="F22" s="6">
+        <v>30.428999999999998</v>
+      </c>
+      <c r="G22" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="J22" s="6">
+        <v>47.5</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="M22" s="1">
+        <v>95</v>
+      </c>
+      <c r="N22" s="6">
+        <v>96</v>
+      </c>
       <c r="O22" s="1" t="s">
         <v>21</v>
       </c>
@@ -21878,11 +22429,36 @@
       <c r="D23" s="1">
         <v>20</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="E23" s="5">
+        <v>30.335000000000001</v>
+      </c>
+      <c r="F23" s="6">
+        <v>30.411999999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="H23" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="J23" s="6">
+        <v>45.4</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="M23" s="1">
+        <v>93</v>
+      </c>
+      <c r="N23" s="6">
+        <v>97</v>
+      </c>
       <c r="O23" s="1" t="s">
         <v>32</v>
       </c>
@@ -21893,7 +22469,7 @@
         <v>29</v>
       </c>
       <c r="R23" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S23" s="1">
         <v>10</v>
@@ -21918,11 +22494,36 @@
       <c r="D24" s="1">
         <v>21</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="E24" s="5">
+        <v>30.585999999999999</v>
+      </c>
+      <c r="F24" s="6">
+        <v>30.652000000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="H24" s="1">
+        <v>46.8</v>
+      </c>
+      <c r="I24" s="1">
+        <v>42.1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>54.3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="M24" s="1">
+        <v>90</v>
+      </c>
+      <c r="N24" s="6">
+        <v>93</v>
+      </c>
       <c r="O24" s="1" t="s">
         <v>38</v>
       </c>
@@ -21958,11 +22559,36 @@
       <c r="D25" s="1">
         <v>22</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="E25" s="5">
+        <v>30.646000000000001</v>
+      </c>
+      <c r="F25" s="6">
+        <v>30.58</v>
+      </c>
+      <c r="G25" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>47</v>
+      </c>
+      <c r="I25" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="J25" s="6">
+        <v>48.6</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="M25" s="1">
+        <v>99</v>
+      </c>
+      <c r="N25" s="6">
+        <v>91</v>
+      </c>
       <c r="O25" s="1" t="s">
         <v>33</v>
       </c>
@@ -21998,11 +22624,36 @@
       <c r="D26" s="1">
         <v>23</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="E26" s="5">
+        <v>30.459</v>
+      </c>
+      <c r="F26" s="6">
+        <v>30.327000000000002</v>
+      </c>
+      <c r="G26" s="1">
+        <v>46.4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="J26" s="6">
+        <v>51.6</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="M26" s="1">
+        <v>94</v>
+      </c>
+      <c r="N26" s="6">
+        <v>97</v>
+      </c>
       <c r="O26" s="1" t="s">
         <v>39</v>
       </c>
@@ -22038,22 +22689,47 @@
       <c r="D27" s="1">
         <v>24</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="E27" s="5">
+        <v>30.260999999999999</v>
+      </c>
+      <c r="F27" s="6">
+        <v>30.210999999999999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="H27" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="I27" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="J27" s="6">
+        <v>47.5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="M27" s="1">
+        <v>95</v>
+      </c>
+      <c r="N27" s="6">
+        <v>95</v>
+      </c>
       <c r="O27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S27" s="1">
         <v>10</v>
@@ -22078,11 +22754,36 @@
       <c r="D28" s="1">
         <v>25</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="E28" s="5">
+        <v>30.169</v>
+      </c>
+      <c r="F28" s="6">
+        <v>30.158999999999999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="H28" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>41.9</v>
+      </c>
+      <c r="J28" s="6">
+        <v>51.4</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="M28" s="1">
+        <v>89</v>
+      </c>
+      <c r="N28" s="6">
+        <v>93</v>
+      </c>
       <c r="O28" s="1" t="s">
         <v>21</v>
       </c>
@@ -22118,16 +22819,41 @@
       <c r="D29" s="1">
         <v>26</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="E29" s="5">
+        <v>30.172000000000001</v>
+      </c>
+      <c r="F29" s="6">
+        <v>30.149000000000001</v>
+      </c>
+      <c r="G29" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="I29" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="J29" s="6">
+        <v>51.2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="M29" s="1">
+        <v>87</v>
+      </c>
+      <c r="N29" s="6">
+        <v>94</v>
+      </c>
       <c r="O29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>29</v>
@@ -22158,11 +22884,36 @@
       <c r="D30" s="1">
         <v>27</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="E30" s="5">
+        <v>30.026</v>
+      </c>
+      <c r="F30" s="6">
+        <v>29.728000000000002</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="H30" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I30" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="J30" s="6">
+        <v>48.5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="M30" s="1">
+        <v>90</v>
+      </c>
+      <c r="N30" s="6">
+        <v>99</v>
+      </c>
       <c r="O30" s="1" t="s">
         <v>23</v>
       </c>
@@ -22198,11 +22949,36 @@
       <c r="D31" s="1">
         <v>28</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="E31" s="5">
+        <v>29.986999999999998</v>
+      </c>
+      <c r="F31" s="6">
+        <v>29.98</v>
+      </c>
+      <c r="G31" s="1">
+        <v>48</v>
+      </c>
+      <c r="H31" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="I31" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="J31" s="6">
+        <v>49.8</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="M31" s="1">
+        <v>99</v>
+      </c>
+      <c r="N31" s="6">
+        <v>99</v>
+      </c>
       <c r="O31" s="1" t="s">
         <v>29</v>
       </c>
@@ -22232,21 +23008,45 @@
       <c r="D32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="10"/>
+      <c r="E32" s="11">
+        <v>30.315999999999999</v>
+      </c>
+      <c r="F32" s="12">
+        <v>30.297000000000001</v>
+      </c>
+      <c r="G32" s="10">
+        <v>41.6</v>
+      </c>
+      <c r="H32" s="11">
+        <v>42</v>
+      </c>
+      <c r="I32" s="11">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="J32" s="12">
+        <v>45.7</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0.247</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="M32" s="10">
+        <v>92.6</v>
+      </c>
+      <c r="N32" s="12">
+        <v>94</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.9</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.1</v>
       </c>
@@ -22277,8 +23077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82F61C-05AA-4FA3-BD74-74225C388CDC}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24242,11 +25042,15 @@
       <c r="N32" s="12">
         <v>88.3</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.4</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.2</v>
       </c>
@@ -24276,11 +25080,11 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43E2027-8566-4F24-BD57-2C2DEF03F051}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -24978,8 +25782,8 @@
       <c r="T12" s="1">
         <v>10</v>
       </c>
-      <c r="U12" s="9" t="s">
-        <v>22</v>
+      <c r="U12" s="9">
+        <v>0.12</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -26254,11 +27058,15 @@
       <c r="N32" s="12">
         <v>96.7</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.6</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.2999999999999998</v>
       </c>
@@ -26271,6 +27079,24 @@
       <c r="U32" s="21">
         <v>5.49</v>
       </c>
+    </row>
+    <row r="33" spans="5:22">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26290,8 +27116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3289CD-9D97-49EF-92C4-FFFF5740CCC3}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="H17" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26516,7 +27342,7 @@
         <v>2</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R5" s="6">
         <v>3</v>
@@ -26640,7 +27466,7 @@
         <v>88</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="1">
         <v>2</v>
@@ -26705,7 +27531,7 @@
         <v>86</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="1">
         <v>3</v>
@@ -26982,8 +27808,8 @@
       <c r="T12" s="1">
         <v>10</v>
       </c>
-      <c r="U12" s="9" t="s">
-        <v>79</v>
+      <c r="U12" s="9">
+        <v>0.11</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
@@ -27048,7 +27874,7 @@
         <v>10</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
@@ -27632,8 +28458,8 @@
       <c r="T22" s="1">
         <v>9</v>
       </c>
-      <c r="U22" s="9" t="s">
-        <v>22</v>
+      <c r="U22" s="9">
+        <v>0.11</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
@@ -27751,7 +28577,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R24" s="6">
         <v>2</v>
@@ -27881,7 +28707,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R26" s="6">
         <v>1</v>
@@ -27943,7 +28769,7 @@
         <v>25</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>21</v>
@@ -28258,11 +29084,15 @@
       <c r="N32" s="12">
         <v>90.5</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.7</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.5</v>
       </c>
@@ -28293,8 +29123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9439A7F5-7EB0-4803-AE7D-1F1798F594DA}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="J19" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28406,7 +29236,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -28471,7 +29301,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -28536,7 +29366,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -28601,7 +29431,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -28666,7 +29496,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -28708,7 +29538,7 @@
         <v>83</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="1">
         <v>3</v>
@@ -28731,7 +29561,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -28796,7 +29626,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -28861,7 +29691,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -28903,7 +29733,7 @@
         <v>84</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" s="1">
         <v>4</v>
@@ -28926,7 +29756,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -28968,7 +29798,7 @@
         <v>93</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P12" s="1">
         <v>2</v>
@@ -28991,7 +29821,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -29056,7 +29886,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -29098,7 +29928,7 @@
         <v>92</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P14" s="1">
         <v>2</v>
@@ -29121,7 +29951,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -29186,7 +30016,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -29251,7 +30081,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -29299,7 +30129,7 @@
         <v>2</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R17" s="6">
         <v>1</v>
@@ -29316,7 +30146,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -29381,7 +30211,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -29446,7 +30276,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -29511,7 +30341,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -29576,7 +30406,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -29641,7 +30471,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -29706,7 +30536,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -29748,7 +30578,7 @@
         <v>92</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P24" s="1">
         <v>1</v>
@@ -29771,7 +30601,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -29836,7 +30666,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -29901,7 +30731,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -29966,7 +30796,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -30031,7 +30861,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -30096,7 +30926,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -30161,7 +30991,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -30261,11 +31091,15 @@
       <c r="N32" s="12">
         <v>89.9</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.8</v>
       </c>
@@ -30295,11 +31129,11 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BEAC26-C5B0-45DF-8883-8A32E1429DC5}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:XFD33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U28" sqref="U28"/>
+      <pane ySplit="3" topLeftCell="J23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -30418,7 +31252,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -30483,7 +31317,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -30548,7 +31382,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -30613,7 +31447,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -30678,7 +31512,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -30743,7 +31577,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -30808,7 +31642,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -30873,7 +31707,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -30938,7 +31772,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -31003,7 +31837,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -31068,7 +31902,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -31133,7 +31967,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -31198,7 +32032,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -31240,7 +32074,7 @@
         <v>89</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P16" s="1">
         <v>2</v>
@@ -31263,7 +32097,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -31328,7 +32162,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -31393,7 +32227,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -31458,7 +32292,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -31523,7 +32357,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -31588,7 +32422,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -31653,7 +32487,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -31718,7 +32552,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -31783,7 +32617,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -31848,7 +32682,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -31913,7 +32747,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -31978,7 +32812,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -32043,7 +32877,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -32108,7 +32942,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -32173,7 +33007,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -32273,11 +33107,15 @@
       <c r="N32" s="12">
         <v>90.7</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2.1</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.3</v>
       </c>
@@ -32290,6 +33128,24 @@
       <c r="U32" s="13">
         <v>1.4430000000000001</v>
       </c>
+    </row>
+    <row r="33" spans="5:21 16384:16384">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="XFD33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -32309,8 +33165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B72303-BE3D-4EF5-B3F3-F954C1028531}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32419,7 +33275,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -32484,7 +33340,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -32549,7 +33405,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -32614,7 +33470,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -32679,7 +33535,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -32727,7 +33583,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="R8" s="6">
         <v>2</v>
@@ -32744,7 +33600,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -32786,7 +33642,7 @@
         <v>93</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P9" s="1">
         <v>1</v>
@@ -32809,7 +33665,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -32857,7 +33713,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="R10" s="6">
         <v>1</v>
@@ -32874,7 +33730,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -32939,7 +33795,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -33004,7 +33860,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -33069,7 +33925,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -33111,10 +33967,10 @@
         <v>93</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>39</v>
@@ -33134,7 +33990,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -33179,10 +34035,10 @@
         <v>27</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="R15" s="6">
         <v>5</v>
@@ -33199,7 +34055,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -33241,7 +34097,7 @@
         <v>97</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="P16" s="1">
         <v>5</v>
@@ -33264,7 +34120,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -33329,7 +34185,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -33394,7 +34250,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -33436,7 +34292,7 @@
         <v>74</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P19" s="1">
         <v>6</v>
@@ -33459,7 +34315,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -33524,7 +34380,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -33572,7 +34428,7 @@
         <v>5</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R21" s="6">
         <v>3</v>
@@ -33589,7 +34445,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -33654,7 +34510,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -33719,7 +34575,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -33784,7 +34640,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -33826,13 +34682,13 @@
         <v>83</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="P25" s="1">
         <v>2</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="R25" s="6">
         <v>2</v>
@@ -33849,7 +34705,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -33891,7 +34747,7 @@
         <v>89</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="P26" s="1">
         <v>2</v>
@@ -33914,7 +34770,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -33962,7 +34818,7 @@
         <v>3</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="R27" s="6">
         <v>3</v>
@@ -33979,7 +34835,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -34021,13 +34877,13 @@
         <v>87</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P28" s="1">
         <v>2</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="R28" s="6">
         <v>4</v>
@@ -34044,7 +34900,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -34109,7 +34965,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -34174,7 +35030,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -34274,11 +35130,15 @@
       <c r="N32" s="12">
         <v>87.6</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>2.1</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.4</v>
       </c>
@@ -34308,11 +35168,11 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D2AE6-BEC7-4F51-B744-4A0ACE3E49DE}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="E21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -34431,7 +35291,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -34496,7 +35356,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -34561,7 +35421,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -34626,7 +35486,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -34691,7 +35551,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -34756,7 +35616,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -34821,7 +35681,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -34886,7 +35746,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -34951,7 +35811,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -35016,7 +35876,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -35081,7 +35941,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -35146,7 +36006,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -35211,7 +36071,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -35276,7 +36136,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -35341,7 +36201,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -35406,7 +36266,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -35471,7 +36331,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -35536,7 +36396,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -35601,7 +36461,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -35666,7 +36526,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -35731,7 +36591,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -35796,7 +36656,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -35861,7 +36721,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -35926,7 +36786,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -35938,7 +36798,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="5">
-        <v>30.238</v>
+        <v>30.283000000000001</v>
       </c>
       <c r="F27" s="6">
         <v>30.212</v>
@@ -35991,7 +36851,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -36056,7 +36916,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -36121,7 +36981,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -36186,7 +37046,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -36286,11 +37146,15 @@
       <c r="N32" s="12">
         <v>92.1</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>0.9</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1</v>
       </c>
@@ -36303,6 +37167,23 @@
       <c r="U32" s="13">
         <v>1.645</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -36321,11 +37202,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CBB8FD-655A-4863-88F4-7CCF8E717079}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="D14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
+      <pane ySplit="3" topLeftCell="N25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U33" sqref="U33"/>
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -37106,7 +37987,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="5">
-        <v>20.960999999999999</v>
+        <v>29.960999999999999</v>
       </c>
       <c r="F14" s="6">
         <v>30.026</v>
@@ -38299,11 +39180,15 @@
       <c r="N32" s="12">
         <v>92.1</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="P32" s="11">
         <v>2.8</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>2.1</v>
       </c>
@@ -38316,6 +39201,23 @@
       <c r="U32" s="13">
         <v>3.512</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -38336,8 +39238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85204B69-BD73-463D-846C-48564885D419}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="K20" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38449,7 +39351,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -38497,7 +39399,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" s="6">
         <v>1</v>
@@ -38514,7 +39416,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -38579,7 +39481,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -38644,7 +39546,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -38709,7 +39611,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -38774,7 +39676,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -38839,7 +39741,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -38904,7 +39806,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -38969,7 +39871,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -39034,7 +39936,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -39099,7 +40001,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -39164,7 +40066,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -39229,7 +40131,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -39271,7 +40173,7 @@
         <v>100</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P16" s="1">
         <v>1</v>
@@ -39294,7 +40196,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -39359,7 +40261,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -39424,7 +40326,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -39489,7 +40391,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -39554,7 +40456,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -39619,7 +40521,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -39684,7 +40586,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -39749,7 +40651,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -39814,7 +40716,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -39879,7 +40781,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -39944,7 +40846,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -40009,7 +40911,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -40074,7 +40976,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -40139,7 +41041,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -40204,7 +41106,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -40304,11 +41206,15 @@
       <c r="N32" s="12">
         <v>86.1</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.1000000000000001</v>
       </c>
@@ -40338,11 +41244,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CD3842-9C61-4617-AE21-5E6E6D85A650}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -40461,7 +41367,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -40526,7 +41432,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -40591,7 +41497,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -40656,7 +41562,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -40721,7 +41627,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -40786,7 +41692,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -40851,7 +41757,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -40916,7 +41822,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -40981,7 +41887,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -41046,7 +41952,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -41111,7 +42017,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -41176,7 +42082,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -41241,7 +42147,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -41306,7 +42212,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -41371,7 +42277,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -41436,7 +42342,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -41501,7 +42407,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -41566,7 +42472,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -41631,7 +42537,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -41696,7 +42602,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -41761,7 +42667,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -41826,7 +42732,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -41891,7 +42797,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -41956,7 +42862,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -42021,7 +42927,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -42086,7 +42992,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -42151,7 +43057,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -42216,7 +43122,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -42316,11 +43222,15 @@
       <c r="N32" s="12">
         <v>95.8</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.4</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.6</v>
       </c>
@@ -42333,6 +43243,23 @@
       <c r="U32" s="13">
         <v>1.6890000000000001</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -42350,11 +43277,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3C7290-F441-421E-ACDE-BDA0F2227C67}">
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:XFD33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <pane ySplit="3" topLeftCell="L29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -42473,7 +43400,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -42538,7 +43465,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -42603,7 +43530,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -42668,7 +43595,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -42733,7 +43660,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -42798,7 +43725,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -42863,7 +43790,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -42928,7 +43855,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -42993,7 +43920,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -43058,7 +43985,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -43123,7 +44050,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -43188,7 +44115,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -43253,7 +44180,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -43318,7 +44245,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -43383,7 +44310,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -43448,7 +44375,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -43513,7 +44440,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -43578,7 +44505,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -43643,7 +44570,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -43708,7 +44635,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -43773,7 +44700,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -43838,7 +44765,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -43903,7 +44830,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -43968,7 +44895,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -44033,7 +44960,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -44098,7 +45025,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -44163,7 +45090,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -44228,7 +45155,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -44328,11 +45255,15 @@
       <c r="N32" s="12">
         <v>85.5</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.3</v>
       </c>
@@ -44345,6 +45276,24 @@
       <c r="U32" s="13">
         <v>1.1299999999999999</v>
       </c>
+    </row>
+    <row r="33" spans="5:21 16384:16384">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="XFD33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -44363,11 +45312,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD2F424-5C0C-452B-9901-DCB60439C948}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:U32"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
+      <pane ySplit="3" topLeftCell="M26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -44486,7 +45435,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -44551,7 +45500,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -44616,7 +45565,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -44681,7 +45630,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -44746,7 +45695,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -44811,7 +45760,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -44876,7 +45825,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -44941,7 +45890,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -45006,7 +45955,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -45071,7 +46020,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -45136,7 +46085,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -45201,7 +46150,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -45266,7 +46215,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -45331,7 +46280,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -45396,7 +46345,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -45461,7 +46410,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -45526,7 +46475,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -45591,7 +46540,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -45656,7 +46605,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -45721,7 +46670,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -45786,7 +46735,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -45851,7 +46800,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -45916,7 +46865,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -45981,7 +46930,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -46046,7 +46995,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -46111,7 +47060,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -46176,7 +47125,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -46241,7 +47190,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -46341,11 +47290,15 @@
       <c r="N32" s="12">
         <v>89.3</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.4</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.8</v>
       </c>
@@ -46358,6 +47311,23 @@
       <c r="U32" s="13">
         <v>2.4550000000000001</v>
       </c>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -46377,8 +47347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABDBAB1-DE1F-4A3C-9BCF-CF6F687CA5A3}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView topLeftCell="H25" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46490,7 +47460,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -46555,7 +47525,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -46620,7 +47590,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -46685,7 +47655,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -46750,7 +47720,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -46815,7 +47785,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -46880,7 +47850,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -46945,7 +47915,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -47010,7 +47980,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -47075,7 +48045,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -47140,7 +48110,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -47205,7 +48175,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -47247,7 +48217,7 @@
         <v>80</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P15" s="1">
         <v>0.5</v>
@@ -47270,7 +48240,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -47335,7 +48305,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -47400,7 +48370,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -47465,7 +48435,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -47530,7 +48500,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -47595,7 +48565,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -47660,7 +48630,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -47725,7 +48695,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -47790,7 +48760,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -47855,7 +48825,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -47920,7 +48890,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -47985,7 +48955,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -48050,7 +49020,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -48115,7 +49085,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -48180,7 +49150,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -48245,7 +49215,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -48345,11 +49315,15 @@
       <c r="N32" s="12">
         <v>93</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.4</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.5</v>
       </c>
@@ -48380,8 +49354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69065F44-B6FE-4052-938F-A53648DF520D}">
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48493,7 +49467,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1">
         <v>1878</v>
@@ -48558,7 +49532,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1">
         <v>1878</v>
@@ -48600,13 +49574,13 @@
         <v>86</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R5" s="6">
         <v>2</v>
@@ -48623,7 +49597,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
         <v>1878</v>
@@ -48665,7 +49639,7 @@
         <v>93</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P6" s="1">
         <v>2</v>
@@ -48688,7 +49662,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>1878</v>
@@ -48753,7 +49727,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
         <v>1878</v>
@@ -48818,7 +49792,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1">
         <v>1878</v>
@@ -48866,7 +49840,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R9" s="6">
         <v>3</v>
@@ -48883,7 +49857,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1">
         <v>1878</v>
@@ -48925,13 +49899,13 @@
         <v>88</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P10" s="1">
         <v>2</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R10" s="6">
         <v>2</v>
@@ -48948,7 +49922,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1">
         <v>1878</v>
@@ -48990,13 +49964,13 @@
         <v>92</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R11" s="6">
         <v>1</v>
@@ -49013,7 +49987,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1">
         <v>1878</v>
@@ -49078,7 +50052,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>1878</v>
@@ -49143,7 +50117,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1">
         <v>1878</v>
@@ -49208,7 +50182,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1">
         <v>1878</v>
@@ -49256,7 +50230,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R15" s="6">
         <v>2</v>
@@ -49273,7 +50247,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>1878</v>
@@ -49321,7 +50295,7 @@
         <v>2</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R16" s="6">
         <v>2</v>
@@ -49338,7 +50312,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1">
         <v>1878</v>
@@ -49386,7 +50360,7 @@
         <v>2</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R17" s="6">
         <v>1</v>
@@ -49403,7 +50377,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1">
         <v>1878</v>
@@ -49468,7 +50442,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1">
         <v>1878</v>
@@ -49510,13 +50484,13 @@
         <v>93</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" s="1">
         <v>4</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R19" s="6">
         <v>4</v>
@@ -49533,7 +50507,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1">
         <v>1878</v>
@@ -49581,7 +50555,7 @@
         <v>6</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R20" s="6">
         <v>3</v>
@@ -49598,7 +50572,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1">
         <v>1878</v>
@@ -49646,7 +50620,7 @@
         <v>4</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R21" s="6">
         <v>2</v>
@@ -49663,7 +50637,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1">
         <v>1878</v>
@@ -49705,7 +50679,7 @@
         <v>94</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" s="1">
         <v>1</v>
@@ -49728,7 +50702,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>1878</v>
@@ -49793,7 +50767,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1">
         <v>1878</v>
@@ -49835,7 +50809,7 @@
         <v>97</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P24" s="1">
         <v>3</v>
@@ -49858,7 +50832,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1">
         <v>1878</v>
@@ -49900,7 +50874,7 @@
         <v>89</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P25" s="1">
         <v>1</v>
@@ -49923,7 +50897,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1">
         <v>1878</v>
@@ -49965,7 +50939,7 @@
         <v>97</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P26" s="1">
         <v>1</v>
@@ -49988,7 +50962,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1">
         <v>1878</v>
@@ -50053,7 +51027,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1">
         <v>1878</v>
@@ -50095,13 +51069,13 @@
         <v>89</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P28" s="1">
         <v>2</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R28" s="6">
         <v>2</v>
@@ -50118,7 +51092,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1">
         <v>1878</v>
@@ -50160,13 +51134,13 @@
         <v>98</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P29" s="1">
         <v>2</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R29" s="6">
         <v>3</v>
@@ -50183,7 +51157,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1">
         <v>1878</v>
@@ -50248,7 +51222,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>1878</v>
@@ -50348,11 +51322,15 @@
       <c r="N32" s="12">
         <v>91.8</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P32" s="11">
         <v>1.9</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="12">
         <v>1.6</v>
       </c>
@@ -50380,8 +51358,87 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11f18feb37c278a512788b2e5a06b2f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d97308c79b2bb5835a55e257627f43a5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35901</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35901</Url>
+      <Description>H7Q62YT2XCZT-908671883-35901</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fab658b03a225995fedfaf9f5ddfec44">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7ac2c30bc9a14497f60988622dc2253" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
     <xsd:import namespace="502a79df-4f52-4757-ac2f-753e065f4c93"/>
@@ -50413,6 +51470,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -50511,6 +51569,11 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="29" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="30" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -50680,97 +51743,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35901</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35901</Url>
-      <Description>H7Q62YT2XCZT-908671883-35901</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22337544-1B7B-4988-B0BE-222AF3DACD26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC2E7A71-A4E9-4347-8693-4BB72587FC33}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC2E7A71-A4E9-4347-8693-4BB72587FC33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A8CCFB-69A8-4D6F-8C01-E39CE803AC4B}"/>
 </file>